--- a/Descargas/R15_Juzgado De Garantia De Calama_Ingresos Causas Por Materia_2020-Octubre.xlsx
+++ b/Descargas/R15_Juzgado De Garantia De Calama_Ingresos Causas Por Materia_2020-Octubre.xlsx
@@ -807,7 +807,7 @@
     <row r="61">
       <c t="inlineStr" r="A61">
         <is>
-          <t xml:space="preserve">Posesión Tenencia O Porte De Mun Y Sust Químicas</t>
+          <t xml:space="preserve">Posesión, Tenencia O Porte De Armas Sujetas A Control</t>
         </is>
       </c>
       <c r="B61" s="65">
